--- a/tests/fixtures/orderforms/1508.15.mip.xlsx
+++ b/tests/fixtures/orderforms/1508.15.mip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrikgrenfeldt/Documents/src/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68160B5B-44C1-D545-90F4-6B8611533BB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF47AC9D-1536-BF44-A99F-A3F71C3B68EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="2640" windowWidth="41060" windowHeight="21100" tabRatio="262" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1600" yWindow="460" windowWidth="34140" windowHeight="20920" tabRatio="262" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="information" sheetId="5" r:id="rId1"/>
@@ -1335,9 +1335,6 @@
       <t xml:space="preserve">the sample id of the father
 </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1508:14 Orderform </t>
   </si>
   <si>
     <r>
@@ -1685,9 +1682,6 @@
     <t>CSP</t>
   </si>
   <si>
-    <t>Emilia Ottosson Laakso</t>
-  </si>
-  <si>
     <t>Valtteri Wirta</t>
   </si>
   <si>
@@ -1726,78 +1720,93 @@
     <t>muscle</t>
   </si>
   <si>
+    <t xml:space="preserve">1508:15 Orderform </t>
+  </si>
+  <si>
+    <t>Anna Gellerbring</t>
+  </si>
+  <si>
+    <t>whole-genome-1</t>
+  </si>
+  <si>
+    <t>whole-genome</t>
+  </si>
+  <si>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>whole-genome-2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>whole-genome-3</t>
+  </si>
+  <si>
+    <t>whole-genome-4</t>
+  </si>
+  <si>
+    <t>whole-genome-5</t>
+  </si>
+  <si>
+    <t>whole-genome-6</t>
+  </si>
+  <si>
+    <t>whole-genome-7</t>
+  </si>
+  <si>
+    <t>whole-genome-8</t>
+  </si>
+  <si>
+    <t>whole-genome-9</t>
+  </si>
+  <si>
+    <t>whole-genome-10</t>
+  </si>
+  <si>
+    <t>whole-exome-1</t>
+  </si>
+  <si>
+    <t>whole-exome</t>
+  </si>
+  <si>
+    <t>whole-exome-2</t>
+  </si>
+  <si>
+    <t>whole-exome-3</t>
+  </si>
+  <si>
+    <t>cancer-capture-panels-1</t>
+  </si>
+  <si>
+    <t>cancer-capture-panels</t>
+  </si>
+  <si>
+    <t>cancer-capture-panels-2</t>
+  </si>
+  <si>
+    <t>cancer-capture-panels-3</t>
+  </si>
+  <si>
+    <t>rna-1</t>
+  </si>
+  <si>
     <t>rna</t>
   </si>
   <si>
-    <t>plate</t>
-  </si>
-  <si>
-    <t>whole-genome</t>
-  </si>
-  <si>
-    <t>whole-exome</t>
-  </si>
-  <si>
-    <t>cancer-capture-panels</t>
-  </si>
-  <si>
-    <t>whole-genome-1</t>
-  </si>
-  <si>
-    <t>whole-genome-2</t>
-  </si>
-  <si>
-    <t>whole-genome-3</t>
-  </si>
-  <si>
-    <t>whole-genome-4</t>
-  </si>
-  <si>
-    <t>whole-genome-5</t>
-  </si>
-  <si>
-    <t>whole-genome-6</t>
-  </si>
-  <si>
-    <t>whole-genome-7</t>
-  </si>
-  <si>
-    <t>whole-genome-8</t>
-  </si>
-  <si>
-    <t>whole-genome-9</t>
-  </si>
-  <si>
-    <t>whole-genome-10</t>
-  </si>
-  <si>
-    <t>whole-exome-1</t>
-  </si>
-  <si>
-    <t>whole-exome-2</t>
-  </si>
-  <si>
-    <t>whole-exome-3</t>
-  </si>
-  <si>
-    <t>cancer-capture-panels-1</t>
-  </si>
-  <si>
-    <t>cancer-capture-panels-2</t>
-  </si>
-  <si>
-    <t>cancer-capture-panels-3</t>
-  </si>
-  <si>
-    <t>rna-1</t>
-  </si>
-  <si>
     <t>rna-2</t>
   </si>
   <si>
+    <t>comment</t>
+  </si>
+  <si>
     <t>gene-list-test-1</t>
   </si>
   <si>
+    <t>gene-list-test</t>
+  </si>
+  <si>
     <t>gene-list-test-2</t>
   </si>
   <si>
@@ -1895,15 +1904,6 @@
   </si>
   <si>
     <t>gene-list-test-34</t>
-  </si>
-  <si>
-    <t>gene-list-test</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>comment</t>
   </si>
 </sst>
 </file>
@@ -3787,7 +3787,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2310553</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>55034</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4179,7 +4179,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -4223,7 +4223,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -4247,8 +4247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4265,7 +4265,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="2"/>
@@ -4283,7 +4283,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>24</v>
@@ -4298,7 +4298,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>26</v>
@@ -4309,7 +4309,6 @@
     </row>
     <row r="5" spans="1:5" hidden="1"/>
     <row r="6" spans="1:5" hidden="1"/>
-    <row r="7" spans="1:5" hidden="1"/>
     <row r="14" spans="1:5" ht="19">
       <c r="A14" s="41" t="s">
         <v>250</v>
@@ -4322,27 +4321,27 @@
     </row>
     <row r="16" spans="1:5" ht="14">
       <c r="A16" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="14">
       <c r="A17" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="14">
       <c r="A18" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="14">
       <c r="A19" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="14">
       <c r="A20" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="16">
@@ -4362,12 +4361,12 @@
     </row>
     <row r="26" spans="1:1" ht="28">
       <c r="A26" s="36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="98">
       <c r="A27" s="36" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="36" customHeight="1">
@@ -4382,7 +4381,7 @@
     </row>
     <row r="30" spans="1:1" ht="27" customHeight="1">
       <c r="A30" s="36" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="28">
@@ -4397,7 +4396,7 @@
     </row>
     <row r="33" spans="1:5" ht="52" customHeight="1">
       <c r="A33" s="35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C33" s="16"/>
       <c r="E33" s="16"/>
@@ -4476,32 +4475,32 @@
     </row>
     <row r="51" spans="1:1" ht="28">
       <c r="A51" s="35" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="14">
       <c r="A52" s="35" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="14">
       <c r="A56" s="35" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="28" customHeight="1">
       <c r="A57" s="37" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="28" customHeight="1">
       <c r="A58" s="37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -4562,7 +4561,7 @@
       <c r="A80" s="16"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YC2FrqvxuxCdgPs2rz0v2G7WVpDLnlfsPKGuUC3HUIoAOtq1+GH3+sQFpGgKkaMWpQuALORguIp/pjneAcENiQ==" saltValue="xSK47VJfeSLePxG37PQCnw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
     <hyperlink ref="A14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
@@ -4584,8 +4583,8 @@
   </sheetPr>
   <dimension ref="A1:AC428"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AC16" sqref="AC16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -4593,7 +4592,7 @@
     <col min="1" max="1" width="18" style="71" customWidth="1"/>
     <col min="2" max="2" width="8" style="165" customWidth="1"/>
     <col min="3" max="3" width="7.83203125" style="166" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" style="165" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="165" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" style="167" customWidth="1"/>
     <col min="6" max="6" width="6.1640625" style="71" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" style="71"/>
@@ -4881,7 +4880,7 @@
       <c r="N9" s="181"/>
       <c r="O9" s="102"/>
       <c r="P9" s="183" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Q9" s="184"/>
       <c r="R9" s="184"/>
@@ -4893,7 +4892,7 @@
       <c r="V9" s="190"/>
       <c r="W9" s="104"/>
       <c r="X9" s="186" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Y9" s="187"/>
       <c r="Z9" s="188"/>
@@ -4999,13 +4998,13 @@
       </c>
       <c r="W11" s="122"/>
       <c r="X11" s="121" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y11" s="121" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Z11" s="121" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AA11" s="123"/>
       <c r="AB11" s="109" t="s">
@@ -5104,20 +5103,20 @@
       </c>
       <c r="T13" s="145"/>
       <c r="U13" s="141" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="V13" s="147" t="s">
         <v>307</v>
       </c>
       <c r="W13" s="148"/>
       <c r="X13" s="146" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Y13" s="149" t="s">
+        <v>384</v>
+      </c>
+      <c r="Z13" s="149" t="s">
         <v>385</v>
-      </c>
-      <c r="Z13" s="149" t="s">
-        <v>386</v>
       </c>
       <c r="AA13" s="150"/>
       <c r="AB13" s="117" t="s">
@@ -5162,7 +5161,7 @@
     </row>
     <row r="15" spans="1:29" s="133" customFormat="1" ht="25" customHeight="1">
       <c r="A15" s="58" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B15" s="56" t="s">
         <v>37</v>
@@ -5174,7 +5173,7 @@
         <v>289</v>
       </c>
       <c r="E15" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F15" s="57" t="s">
         <v>15</v>
@@ -5196,7 +5195,7 @@
       </c>
       <c r="L15" s="156"/>
       <c r="M15" s="61" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N15" s="60" t="s">
         <v>27</v>
@@ -5209,10 +5208,10 @@
         <v>312</v>
       </c>
       <c r="R15" s="58" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="S15" s="58" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T15" s="157"/>
       <c r="U15" s="171"/>
@@ -5227,7 +5226,7 @@
     </row>
     <row r="16" spans="1:29" s="133" customFormat="1" ht="25" customHeight="1">
       <c r="A16" s="58" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B16" s="56" t="s">
         <v>37</v>
@@ -5239,7 +5238,7 @@
         <v>290</v>
       </c>
       <c r="E16" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F16" s="57" t="s">
         <v>16</v>
@@ -5280,15 +5279,15 @@
       <c r="Z16" s="66"/>
       <c r="AA16" s="159"/>
       <c r="AB16" s="61" t="s">
-        <v>474</v>
+        <v>420</v>
       </c>
       <c r="AC16" s="61" t="s">
-        <v>475</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:29" s="133" customFormat="1" ht="25" customHeight="1">
       <c r="A17" s="58" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B17" s="56" t="s">
         <v>37</v>
@@ -5300,7 +5299,7 @@
         <v>291</v>
       </c>
       <c r="E17" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F17" s="57" t="s">
         <v>15</v>
@@ -5345,7 +5344,7 @@
     </row>
     <row r="18" spans="1:29" s="133" customFormat="1" ht="25" customHeight="1">
       <c r="A18" s="58" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B18" s="56" t="s">
         <v>37</v>
@@ -5357,7 +5356,7 @@
         <v>292</v>
       </c>
       <c r="E18" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F18" s="57" t="s">
         <v>77</v>
@@ -5402,7 +5401,7 @@
     </row>
     <row r="19" spans="1:29" s="133" customFormat="1" ht="25" customHeight="1">
       <c r="A19" s="58" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B19" s="56" t="s">
         <v>37</v>
@@ -5414,7 +5413,7 @@
         <v>293</v>
       </c>
       <c r="E19" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F19" s="57" t="s">
         <v>77</v>
@@ -5423,7 +5422,7 @@
         <v>94</v>
       </c>
       <c r="H19" s="42" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I19" s="21" t="s">
         <v>103</v>
@@ -5459,7 +5458,7 @@
     </row>
     <row r="20" spans="1:29" s="133" customFormat="1" ht="25" customHeight="1">
       <c r="A20" s="58" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B20" s="56" t="s">
         <v>37</v>
@@ -5471,7 +5470,7 @@
         <v>294</v>
       </c>
       <c r="E20" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F20" s="57" t="s">
         <v>77</v>
@@ -5516,7 +5515,7 @@
     </row>
     <row r="21" spans="1:29" s="133" customFormat="1" ht="25" customHeight="1">
       <c r="A21" s="58" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B21" s="56" t="s">
         <v>37</v>
@@ -5528,7 +5527,7 @@
         <v>295</v>
       </c>
       <c r="E21" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F21" s="57" t="s">
         <v>77</v>
@@ -5573,7 +5572,7 @@
     </row>
     <row r="22" spans="1:29" s="133" customFormat="1" ht="25" customHeight="1">
       <c r="A22" s="58" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B22" s="56" t="s">
         <v>37</v>
@@ -5585,7 +5584,7 @@
         <v>296</v>
       </c>
       <c r="E22" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F22" s="57" t="s">
         <v>77</v>
@@ -5630,7 +5629,7 @@
     </row>
     <row r="23" spans="1:29" ht="25" customHeight="1">
       <c r="A23" s="58" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B23" s="56" t="s">
         <v>37</v>
@@ -5642,7 +5641,7 @@
         <v>297</v>
       </c>
       <c r="E23" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F23" s="57" t="s">
         <v>77</v>
@@ -5687,7 +5686,7 @@
     </row>
     <row r="24" spans="1:29" ht="25" customHeight="1">
       <c r="A24" s="58" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B24" s="56" t="s">
         <v>37</v>
@@ -5699,7 +5698,7 @@
         <v>298</v>
       </c>
       <c r="E24" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F24" s="57" t="s">
         <v>77</v>
@@ -5708,7 +5707,7 @@
         <v>94</v>
       </c>
       <c r="H24" s="176" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I24" s="21" t="s">
         <v>103</v>
@@ -5744,7 +5743,7 @@
     </row>
     <row r="25" spans="1:29" ht="25" customHeight="1">
       <c r="A25" s="58" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B25" s="56" t="s">
         <v>37</v>
@@ -5756,7 +5755,7 @@
         <v>285</v>
       </c>
       <c r="E25" s="58" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="F25" s="57" t="s">
         <v>77</v>
@@ -5765,7 +5764,7 @@
         <v>94</v>
       </c>
       <c r="H25" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I25" s="21" t="s">
         <v>103</v>
@@ -5801,7 +5800,7 @@
     </row>
     <row r="26" spans="1:29" ht="25" customHeight="1">
       <c r="A26" s="58" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B26" s="56" t="s">
         <v>37</v>
@@ -5810,10 +5809,10 @@
         <v>309</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E26" s="58" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="F26" s="57" t="s">
         <v>77</v>
@@ -5858,7 +5857,7 @@
     </row>
     <row r="27" spans="1:29" s="160" customFormat="1" ht="25" customHeight="1">
       <c r="A27" s="58" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B27" s="56" t="s">
         <v>37</v>
@@ -5867,10 +5866,10 @@
         <v>309</v>
       </c>
       <c r="D27" s="53" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E27" s="58" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="F27" s="57" t="s">
         <v>77</v>
@@ -5879,7 +5878,7 @@
         <v>94</v>
       </c>
       <c r="H27" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I27" s="21" t="s">
         <v>103</v>
@@ -5895,7 +5894,7 @@
       <c r="N27" s="60"/>
       <c r="O27" s="156"/>
       <c r="P27" s="172" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Q27" s="59" t="s">
         <v>77</v>
@@ -5915,7 +5914,7 @@
     </row>
     <row r="28" spans="1:29" s="160" customFormat="1" ht="25" customHeight="1">
       <c r="A28" s="58" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B28" s="56" t="s">
         <v>37</v>
@@ -5924,10 +5923,10 @@
         <v>309</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E28" s="58" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="F28" s="57" t="s">
         <v>77</v>
@@ -5936,7 +5935,7 @@
         <v>94</v>
       </c>
       <c r="H28" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I28" s="21" t="s">
         <v>103</v>
@@ -5984,7 +5983,7 @@
         <v>251</v>
       </c>
       <c r="E29" s="58" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="F29" s="57" t="s">
         <v>77</v>
@@ -5993,7 +5992,7 @@
         <v>94</v>
       </c>
       <c r="H29" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I29" s="21" t="s">
         <v>103</v>
@@ -6038,10 +6037,10 @@
         <v>309</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E30" s="58" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="F30" s="57" t="s">
         <v>77</v>
@@ -6050,7 +6049,7 @@
         <v>94</v>
       </c>
       <c r="H30" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I30" s="21" t="s">
         <v>103</v>
@@ -6098,7 +6097,7 @@
         <v>300</v>
       </c>
       <c r="E31" s="58" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="F31" s="57" t="s">
         <v>77</v>
@@ -6107,7 +6106,7 @@
         <v>94</v>
       </c>
       <c r="H31" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I31" s="21" t="s">
         <v>103</v>
@@ -6143,7 +6142,7 @@
     </row>
     <row r="32" spans="1:29" s="160" customFormat="1" ht="25" customHeight="1">
       <c r="A32" s="58" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B32" s="56" t="s">
         <v>37</v>
@@ -6155,7 +6154,7 @@
         <v>301</v>
       </c>
       <c r="E32" s="58" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="F32" s="57" t="s">
         <v>77</v>
@@ -6164,7 +6163,7 @@
         <v>94</v>
       </c>
       <c r="H32" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I32" s="21" t="s">
         <v>103</v>
@@ -6200,7 +6199,7 @@
     </row>
     <row r="33" spans="1:29" s="160" customFormat="1" ht="25" customHeight="1">
       <c r="A33" s="40" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B33" s="56" t="s">
         <v>37</v>
@@ -6212,7 +6211,7 @@
         <v>290</v>
       </c>
       <c r="E33" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F33" s="57" t="s">
         <v>77</v>
@@ -6221,7 +6220,7 @@
         <v>94</v>
       </c>
       <c r="H33" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I33" s="21" t="s">
         <v>103</v>
@@ -6257,7 +6256,7 @@
     </row>
     <row r="34" spans="1:29" s="160" customFormat="1" ht="25" customHeight="1">
       <c r="A34" s="40" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B34" s="56" t="s">
         <v>37</v>
@@ -6269,7 +6268,7 @@
         <v>290</v>
       </c>
       <c r="E34" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F34" s="57" t="s">
         <v>77</v>
@@ -6278,7 +6277,7 @@
         <v>94</v>
       </c>
       <c r="H34" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I34" s="21" t="s">
         <v>103</v>
@@ -6294,7 +6293,7 @@
       <c r="N34" s="60"/>
       <c r="O34" s="156"/>
       <c r="P34" s="172" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Q34" s="59" t="s">
         <v>77</v>
@@ -6314,7 +6313,7 @@
     </row>
     <row r="35" spans="1:29" s="160" customFormat="1" ht="25" customHeight="1">
       <c r="A35" s="40" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B35" s="56" t="s">
         <v>37</v>
@@ -6326,7 +6325,7 @@
         <v>290</v>
       </c>
       <c r="E35" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F35" s="57" t="s">
         <v>77</v>
@@ -6335,7 +6334,7 @@
         <v>94</v>
       </c>
       <c r="H35" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I35" s="21" t="s">
         <v>103</v>
@@ -6371,7 +6370,7 @@
     </row>
     <row r="36" spans="1:29" s="161" customFormat="1" ht="25" customHeight="1">
       <c r="A36" s="40" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B36" s="56" t="s">
         <v>37</v>
@@ -6383,7 +6382,7 @@
         <v>290</v>
       </c>
       <c r="E36" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F36" s="57" t="s">
         <v>77</v>
@@ -6392,7 +6391,7 @@
         <v>94</v>
       </c>
       <c r="H36" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I36" s="21" t="s">
         <v>103</v>
@@ -6408,7 +6407,7 @@
       <c r="N36" s="60"/>
       <c r="O36" s="156"/>
       <c r="P36" s="31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Q36" s="59" t="s">
         <v>77</v>
@@ -6428,7 +6427,7 @@
     </row>
     <row r="37" spans="1:29" s="161" customFormat="1" ht="25" customHeight="1">
       <c r="A37" s="40" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B37" s="56" t="s">
         <v>37</v>
@@ -6440,7 +6439,7 @@
         <v>290</v>
       </c>
       <c r="E37" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F37" s="57" t="s">
         <v>77</v>
@@ -6449,7 +6448,7 @@
         <v>94</v>
       </c>
       <c r="H37" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I37" s="21" t="s">
         <v>103</v>
@@ -6485,7 +6484,7 @@
     </row>
     <row r="38" spans="1:29" s="161" customFormat="1" ht="25" customHeight="1">
       <c r="A38" s="40" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B38" s="56" t="s">
         <v>37</v>
@@ -6497,7 +6496,7 @@
         <v>290</v>
       </c>
       <c r="E38" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F38" s="57" t="s">
         <v>77</v>
@@ -6506,7 +6505,7 @@
         <v>94</v>
       </c>
       <c r="H38" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I38" s="21" t="s">
         <v>103</v>
@@ -6542,7 +6541,7 @@
     </row>
     <row r="39" spans="1:29" ht="25" customHeight="1">
       <c r="A39" s="40" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B39" s="56" t="s">
         <v>37</v>
@@ -6554,7 +6553,7 @@
         <v>290</v>
       </c>
       <c r="E39" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F39" s="57" t="s">
         <v>77</v>
@@ -6563,7 +6562,7 @@
         <v>94</v>
       </c>
       <c r="H39" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I39" s="21" t="s">
         <v>103</v>
@@ -6599,7 +6598,7 @@
     </row>
     <row r="40" spans="1:29" ht="25" customHeight="1">
       <c r="A40" s="40" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B40" s="56" t="s">
         <v>37</v>
@@ -6611,7 +6610,7 @@
         <v>290</v>
       </c>
       <c r="E40" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F40" s="57" t="s">
         <v>77</v>
@@ -6620,7 +6619,7 @@
         <v>94</v>
       </c>
       <c r="H40" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I40" s="21" t="s">
         <v>103</v>
@@ -6636,7 +6635,7 @@
       <c r="N40" s="60"/>
       <c r="O40" s="156"/>
       <c r="P40" s="172" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q40" s="59" t="s">
         <v>77</v>
@@ -6656,7 +6655,7 @@
     </row>
     <row r="41" spans="1:29" ht="25" customHeight="1">
       <c r="A41" s="40" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B41" s="56" t="s">
         <v>37</v>
@@ -6668,7 +6667,7 @@
         <v>290</v>
       </c>
       <c r="E41" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F41" s="57" t="s">
         <v>77</v>
@@ -6677,7 +6676,7 @@
         <v>94</v>
       </c>
       <c r="H41" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I41" s="21" t="s">
         <v>103</v>
@@ -6713,7 +6712,7 @@
     </row>
     <row r="42" spans="1:29" ht="25" customHeight="1">
       <c r="A42" s="40" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B42" s="56" t="s">
         <v>37</v>
@@ -6725,7 +6724,7 @@
         <v>290</v>
       </c>
       <c r="E42" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F42" s="57" t="s">
         <v>77</v>
@@ -6734,7 +6733,7 @@
         <v>94</v>
       </c>
       <c r="H42" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I42" s="21" t="s">
         <v>103</v>
@@ -6770,7 +6769,7 @@
     </row>
     <row r="43" spans="1:29" ht="25" customHeight="1">
       <c r="A43" s="40" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B43" s="56" t="s">
         <v>37</v>
@@ -6782,7 +6781,7 @@
         <v>290</v>
       </c>
       <c r="E43" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F43" s="57" t="s">
         <v>77</v>
@@ -6791,7 +6790,7 @@
         <v>94</v>
       </c>
       <c r="H43" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I43" s="21" t="s">
         <v>103</v>
@@ -6827,7 +6826,7 @@
     </row>
     <row r="44" spans="1:29" ht="25" customHeight="1">
       <c r="A44" s="40" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B44" s="56" t="s">
         <v>37</v>
@@ -6839,7 +6838,7 @@
         <v>290</v>
       </c>
       <c r="E44" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F44" s="57" t="s">
         <v>77</v>
@@ -6848,7 +6847,7 @@
         <v>94</v>
       </c>
       <c r="H44" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I44" s="21" t="s">
         <v>103</v>
@@ -6884,7 +6883,7 @@
     </row>
     <row r="45" spans="1:29" ht="25" customHeight="1">
       <c r="A45" s="40" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B45" s="56" t="s">
         <v>37</v>
@@ -6896,7 +6895,7 @@
         <v>290</v>
       </c>
       <c r="E45" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F45" s="57" t="s">
         <v>77</v>
@@ -6905,7 +6904,7 @@
         <v>94</v>
       </c>
       <c r="H45" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I45" s="21" t="s">
         <v>103</v>
@@ -6941,7 +6940,7 @@
     </row>
     <row r="46" spans="1:29" ht="25" customHeight="1">
       <c r="A46" s="40" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B46" s="56" t="s">
         <v>37</v>
@@ -6953,7 +6952,7 @@
         <v>290</v>
       </c>
       <c r="E46" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F46" s="57" t="s">
         <v>77</v>
@@ -6962,7 +6961,7 @@
         <v>94</v>
       </c>
       <c r="H46" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I46" s="21" t="s">
         <v>103</v>
@@ -6978,7 +6977,7 @@
       <c r="N46" s="60"/>
       <c r="O46" s="156"/>
       <c r="P46" s="172" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Q46" s="59" t="s">
         <v>77</v>
@@ -6998,7 +6997,7 @@
     </row>
     <row r="47" spans="1:29" ht="25" customHeight="1">
       <c r="A47" s="40" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B47" s="56" t="s">
         <v>37</v>
@@ -7010,7 +7009,7 @@
         <v>290</v>
       </c>
       <c r="E47" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F47" s="57" t="s">
         <v>77</v>
@@ -7019,7 +7018,7 @@
         <v>94</v>
       </c>
       <c r="H47" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I47" s="21" t="s">
         <v>103</v>
@@ -7055,7 +7054,7 @@
     </row>
     <row r="48" spans="1:29" ht="25" customHeight="1">
       <c r="A48" s="40" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B48" s="56" t="s">
         <v>37</v>
@@ -7067,7 +7066,7 @@
         <v>290</v>
       </c>
       <c r="E48" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F48" s="57" t="s">
         <v>77</v>
@@ -7076,7 +7075,7 @@
         <v>94</v>
       </c>
       <c r="H48" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I48" s="21" t="s">
         <v>103</v>
@@ -7112,7 +7111,7 @@
     </row>
     <row r="49" spans="1:29" ht="25" customHeight="1">
       <c r="A49" s="40" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B49" s="56" t="s">
         <v>37</v>
@@ -7124,7 +7123,7 @@
         <v>290</v>
       </c>
       <c r="E49" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F49" s="57" t="s">
         <v>77</v>
@@ -7133,7 +7132,7 @@
         <v>94</v>
       </c>
       <c r="H49" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I49" s="21" t="s">
         <v>103</v>
@@ -7169,7 +7168,7 @@
     </row>
     <row r="50" spans="1:29" s="162" customFormat="1" ht="25" customHeight="1">
       <c r="A50" s="40" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B50" s="56" t="s">
         <v>37</v>
@@ -7181,7 +7180,7 @@
         <v>290</v>
       </c>
       <c r="E50" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F50" s="57" t="s">
         <v>77</v>
@@ -7190,7 +7189,7 @@
         <v>94</v>
       </c>
       <c r="H50" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I50" s="21" t="s">
         <v>103</v>
@@ -7226,7 +7225,7 @@
     </row>
     <row r="51" spans="1:29" s="162" customFormat="1" ht="25" customHeight="1">
       <c r="A51" s="40" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B51" s="56" t="s">
         <v>37</v>
@@ -7238,7 +7237,7 @@
         <v>290</v>
       </c>
       <c r="E51" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F51" s="57" t="s">
         <v>77</v>
@@ -7247,7 +7246,7 @@
         <v>94</v>
       </c>
       <c r="H51" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I51" s="21" t="s">
         <v>103</v>
@@ -7283,7 +7282,7 @@
     </row>
     <row r="52" spans="1:29" s="162" customFormat="1" ht="25" customHeight="1">
       <c r="A52" s="40" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B52" s="56" t="s">
         <v>37</v>
@@ -7295,7 +7294,7 @@
         <v>290</v>
       </c>
       <c r="E52" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F52" s="57" t="s">
         <v>77</v>
@@ -7304,7 +7303,7 @@
         <v>94</v>
       </c>
       <c r="H52" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I52" s="21" t="s">
         <v>103</v>
@@ -7340,7 +7339,7 @@
     </row>
     <row r="53" spans="1:29" s="162" customFormat="1" ht="25" customHeight="1">
       <c r="A53" s="40" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B53" s="56" t="s">
         <v>37</v>
@@ -7352,7 +7351,7 @@
         <v>290</v>
       </c>
       <c r="E53" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F53" s="57" t="s">
         <v>77</v>
@@ -7361,7 +7360,7 @@
         <v>94</v>
       </c>
       <c r="H53" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I53" s="21" t="s">
         <v>103</v>
@@ -7397,7 +7396,7 @@
     </row>
     <row r="54" spans="1:29" s="162" customFormat="1" ht="25" customHeight="1">
       <c r="A54" s="40" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B54" s="56" t="s">
         <v>37</v>
@@ -7409,7 +7408,7 @@
         <v>290</v>
       </c>
       <c r="E54" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F54" s="57" t="s">
         <v>77</v>
@@ -7418,7 +7417,7 @@
         <v>94</v>
       </c>
       <c r="H54" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I54" s="21" t="s">
         <v>103</v>
@@ -7454,7 +7453,7 @@
     </row>
     <row r="55" spans="1:29" s="162" customFormat="1" ht="25" customHeight="1">
       <c r="A55" s="40" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B55" s="56" t="s">
         <v>37</v>
@@ -7466,7 +7465,7 @@
         <v>290</v>
       </c>
       <c r="E55" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F55" s="57" t="s">
         <v>77</v>
@@ -7475,7 +7474,7 @@
         <v>94</v>
       </c>
       <c r="H55" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I55" s="21" t="s">
         <v>103</v>
@@ -7511,7 +7510,7 @@
     </row>
     <row r="56" spans="1:29" s="162" customFormat="1" ht="25" customHeight="1">
       <c r="A56" s="40" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B56" s="56" t="s">
         <v>37</v>
@@ -7523,7 +7522,7 @@
         <v>290</v>
       </c>
       <c r="E56" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F56" s="57" t="s">
         <v>77</v>
@@ -7532,7 +7531,7 @@
         <v>94</v>
       </c>
       <c r="H56" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I56" s="21" t="s">
         <v>103</v>
@@ -7568,7 +7567,7 @@
     </row>
     <row r="57" spans="1:29" s="162" customFormat="1" ht="25" customHeight="1">
       <c r="A57" s="40" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B57" s="56" t="s">
         <v>37</v>
@@ -7580,7 +7579,7 @@
         <v>290</v>
       </c>
       <c r="E57" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F57" s="57" t="s">
         <v>77</v>
@@ -7589,7 +7588,7 @@
         <v>94</v>
       </c>
       <c r="H57" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I57" s="21" t="s">
         <v>103</v>
@@ -7625,7 +7624,7 @@
     </row>
     <row r="58" spans="1:29" s="162" customFormat="1" ht="25" customHeight="1">
       <c r="A58" s="40" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B58" s="56" t="s">
         <v>37</v>
@@ -7637,7 +7636,7 @@
         <v>290</v>
       </c>
       <c r="E58" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F58" s="57" t="s">
         <v>77</v>
@@ -7646,7 +7645,7 @@
         <v>94</v>
       </c>
       <c r="H58" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I58" s="21" t="s">
         <v>103</v>
@@ -7682,7 +7681,7 @@
     </row>
     <row r="59" spans="1:29" s="162" customFormat="1" ht="25" customHeight="1">
       <c r="A59" s="40" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B59" s="56" t="s">
         <v>37</v>
@@ -7694,7 +7693,7 @@
         <v>290</v>
       </c>
       <c r="E59" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F59" s="57" t="s">
         <v>77</v>
@@ -7703,7 +7702,7 @@
         <v>94</v>
       </c>
       <c r="H59" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I59" s="21" t="s">
         <v>103</v>
@@ -7739,7 +7738,7 @@
     </row>
     <row r="60" spans="1:29" s="162" customFormat="1" ht="25" customHeight="1">
       <c r="A60" s="40" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B60" s="56" t="s">
         <v>37</v>
@@ -7751,7 +7750,7 @@
         <v>290</v>
       </c>
       <c r="E60" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F60" s="57" t="s">
         <v>77</v>
@@ -7760,7 +7759,7 @@
         <v>94</v>
       </c>
       <c r="H60" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I60" s="21" t="s">
         <v>103</v>
@@ -7796,7 +7795,7 @@
     </row>
     <row r="61" spans="1:29" s="162" customFormat="1" ht="25" customHeight="1">
       <c r="A61" s="40" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B61" s="56" t="s">
         <v>37</v>
@@ -7808,7 +7807,7 @@
         <v>290</v>
       </c>
       <c r="E61" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F61" s="57" t="s">
         <v>77</v>
@@ -7817,7 +7816,7 @@
         <v>94</v>
       </c>
       <c r="H61" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I61" s="21" t="s">
         <v>103</v>
@@ -7853,7 +7852,7 @@
     </row>
     <row r="62" spans="1:29" s="162" customFormat="1" ht="25" customHeight="1">
       <c r="A62" s="40" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B62" s="56" t="s">
         <v>37</v>
@@ -7865,7 +7864,7 @@
         <v>290</v>
       </c>
       <c r="E62" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F62" s="57" t="s">
         <v>77</v>
@@ -7874,7 +7873,7 @@
         <v>94</v>
       </c>
       <c r="H62" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I62" s="21" t="s">
         <v>103</v>
@@ -7910,7 +7909,7 @@
     </row>
     <row r="63" spans="1:29" s="163" customFormat="1" ht="25" customHeight="1">
       <c r="A63" s="40" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B63" s="56" t="s">
         <v>37</v>
@@ -7922,7 +7921,7 @@
         <v>290</v>
       </c>
       <c r="E63" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F63" s="57" t="s">
         <v>77</v>
@@ -7931,7 +7930,7 @@
         <v>94</v>
       </c>
       <c r="H63" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I63" s="21" t="s">
         <v>103</v>
@@ -7967,7 +7966,7 @@
     </row>
     <row r="64" spans="1:29" s="163" customFormat="1" ht="25" customHeight="1">
       <c r="A64" s="40" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B64" s="56" t="s">
         <v>37</v>
@@ -7979,7 +7978,7 @@
         <v>290</v>
       </c>
       <c r="E64" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F64" s="57" t="s">
         <v>77</v>
@@ -7988,7 +7987,7 @@
         <v>94</v>
       </c>
       <c r="H64" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I64" s="21" t="s">
         <v>103</v>
@@ -8024,7 +8023,7 @@
     </row>
     <row r="65" spans="1:29" s="163" customFormat="1" ht="25" customHeight="1">
       <c r="A65" s="40" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B65" s="56" t="s">
         <v>37</v>
@@ -8036,7 +8035,7 @@
         <v>290</v>
       </c>
       <c r="E65" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F65" s="57" t="s">
         <v>77</v>
@@ -8045,7 +8044,7 @@
         <v>94</v>
       </c>
       <c r="H65" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I65" s="21" t="s">
         <v>103</v>
@@ -8081,7 +8080,7 @@
     </row>
     <row r="66" spans="1:29" s="163" customFormat="1" ht="25" customHeight="1">
       <c r="A66" s="40" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B66" s="56" t="s">
         <v>37</v>
@@ -8093,7 +8092,7 @@
         <v>290</v>
       </c>
       <c r="E66" s="58" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F66" s="57" t="s">
         <v>77</v>
@@ -8102,7 +8101,7 @@
         <v>94</v>
       </c>
       <c r="H66" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I66" s="21" t="s">
         <v>103</v>
@@ -18518,11 +18517,11 @@
     <mergeCell ref="U9:V9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L15:L394" xr:uid="{8D7FB32C-3427-2549-AEE5-4D4BF06D9402}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K15:K394" xr:uid="{1590E11D-D86A-FC45-B310-31384307009E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K15:K66" xr:uid="{F3A51455-22C1-C340-91E0-3A9F0363D218}">
       <formula1>$I$3:$I$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -18537,96 +18536,186 @@
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="30">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3D101648-861B-C44F-9EA1-C1DFE8FE106F}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$E$3:$E$103</xm:f>
           </x14:formula1>
-          <xm:sqref>B15:B394</xm:sqref>
+          <xm:sqref>B67:B394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C94ACB21-8575-E349-97C4-9188D8686827}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$D$3:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F15:F394</xm:sqref>
+          <xm:sqref>F67:F394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7604AA96-D86E-8C49-95DF-A8C3A1F9AA6D}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$K$3:$K$98</xm:f>
           </x14:formula1>
-          <xm:sqref>N15:N394</xm:sqref>
+          <xm:sqref>N67:N394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0D030033-729E-3940-A2F0-6EDE030A4235}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$A$3:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>K15:K394</xm:sqref>
+          <xm:sqref>K67:K394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0AB04B6F-DD6D-D24E-8CD7-22596E657E09}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$M$3:$M$102</xm:f>
           </x14:formula1>
-          <xm:sqref>W15:W394</xm:sqref>
+          <xm:sqref>W67:W394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8F8862D0-5953-E940-A175-C24E85C556BA}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$H$3:$H$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G15:G394</xm:sqref>
+          <xm:sqref>G67:G394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{049A1BE4-E9DE-0D4B-868D-02E76474AFA5}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$J$3:$J$5</xm:f>
           </x14:formula1>
-          <xm:sqref>Q15:Q394</xm:sqref>
+          <xm:sqref>Q67:Q394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{08D5E3A7-E133-A54A-8435-B3FB6647D742}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$B$3:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C15:C394</xm:sqref>
+          <xm:sqref>C67:C394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BEC08EC3-9F4B-6843-8C63-E99D96F3B80C}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$I$3:$I$7</xm:f>
           </x14:formula1>
-          <xm:sqref>I15:I394</xm:sqref>
+          <xm:sqref>I67:I394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B9CE73CA-32E5-CD40-909B-B3388F139783}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$M$3:$M$22</xm:f>
           </x14:formula1>
-          <xm:sqref>V15:V394</xm:sqref>
+          <xm:sqref>V67:V394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AE62419B-1860-B240-A67A-B0DC077CD735}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$N$3:$N$4</xm:f>
           </x14:formula1>
-          <xm:sqref>Z15:Z394</xm:sqref>
+          <xm:sqref>Z67:Z394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{69271FA2-0E38-394D-9669-1C78E1B7E49C}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$F$3:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G15:G394 J15:K394</xm:sqref>
+          <xm:sqref>G67:G394 J67:K394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7180FD00-41DF-8643-B71E-0C3BEC5EA22D}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$L$3:$L$54</xm:f>
           </x14:formula1>
-          <xm:sqref>P15:P394</xm:sqref>
+          <xm:sqref>P67:P394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Make sure the information matches the valid Application tags in the information tab" xr:uid="{420DCC94-8F2C-ED4B-99EB-812BBC021162}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$C$3:$C$24</xm:f>
           </x14:formula1>
-          <xm:sqref>D15:D394</xm:sqref>
+          <xm:sqref>D67:D394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{88BF134A-5ECF-2B44-AD8A-3C294F943CA6}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$G$3:$G$13</xm:f>
           </x14:formula1>
-          <xm:sqref>H15:H394 K15:K394</xm:sqref>
+          <xm:sqref>H67:H394 K67:K394</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F7E859BE-ACD8-0B41-ACC2-676CE139802B}">
+          <x14:formula1>
+            <xm:f>'/Users/patrikgrenfeldt/Documents/src/cg/tests/fixtures/orderforms/[1508.15.mip.xlsx]Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>H15:H66 K15:K66</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Make sure the information matches the valid Application tags in the information tab" xr:uid="{D7269B74-18FD-E641-B429-B50E3A0E073A}">
+          <x14:formula1>
+            <xm:f>'/Users/patrikgrenfeldt/Documents/src/cg/tests/fixtures/orderforms/[1508.15.mip.xlsx]Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>D15:D66</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1E66F4CD-2B74-9F41-AC99-6BB518FBE1BD}">
+          <x14:formula1>
+            <xm:f>'/Users/patrikgrenfeldt/Documents/src/cg/tests/fixtures/orderforms/[1508.15.mip.xlsx]Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>P15:P66</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{98EE5272-3EDC-0C4A-8D70-E2B6F66923BD}">
+          <x14:formula1>
+            <xm:f>'/Users/patrikgrenfeldt/Documents/src/cg/tests/fixtures/orderforms/[1508.15.mip.xlsx]Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>G15:G66 J15:K66</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C55268A5-810D-2243-8A0F-3AE841BFADAF}">
+          <x14:formula1>
+            <xm:f>'/Users/patrikgrenfeldt/Documents/src/cg/tests/fixtures/orderforms/[1508.15.mip.xlsx]Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>Z15:Z66</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EB34F2DC-461C-6241-A1A8-010B64C1DCF1}">
+          <x14:formula1>
+            <xm:f>'/Users/patrikgrenfeldt/Documents/src/cg/tests/fixtures/orderforms/[1508.15.mip.xlsx]Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>V15:V66</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BC4D46DB-A500-F244-80C4-A55B1045DCAF}">
+          <x14:formula1>
+            <xm:f>'/Users/patrikgrenfeldt/Documents/src/cg/tests/fixtures/orderforms/[1508.15.mip.xlsx]Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>I15:I66</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F4E80995-70ED-6E41-968C-80C87D6991C6}">
+          <x14:formula1>
+            <xm:f>'/Users/patrikgrenfeldt/Documents/src/cg/tests/fixtures/orderforms/[1508.15.mip.xlsx]Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C15:C66</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4508CA5E-F447-864A-BC84-08F08FE12B1B}">
+          <x14:formula1>
+            <xm:f>'/Users/patrikgrenfeldt/Documents/src/cg/tests/fixtures/orderforms/[1508.15.mip.xlsx]Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q15:Q66</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2422B6A9-084F-DD48-BE3C-69FDE7696051}">
+          <x14:formula1>
+            <xm:f>'/Users/patrikgrenfeldt/Documents/src/cg/tests/fixtures/orderforms/[1508.15.mip.xlsx]Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>G15:G66</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FA4F60BF-E415-3B4E-98BD-98C0639E0F6A}">
+          <x14:formula1>
+            <xm:f>'/Users/patrikgrenfeldt/Documents/src/cg/tests/fixtures/orderforms/[1508.15.mip.xlsx]Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>W15:W66</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{48EF7B77-E23B-C94B-A1C5-173087449470}">
+          <x14:formula1>
+            <xm:f>'/Users/patrikgrenfeldt/Documents/src/cg/tests/fixtures/orderforms/[1508.15.mip.xlsx]Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>K15:K66</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1312F364-D2B8-204B-B41F-EDA2FD9ADA73}">
+          <x14:formula1>
+            <xm:f>'/Users/patrikgrenfeldt/Documents/src/cg/tests/fixtures/orderforms/[1508.15.mip.xlsx]Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>N15:N66</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C52895A8-F813-8340-97F6-4324CF200557}">
+          <x14:formula1>
+            <xm:f>'/Users/patrikgrenfeldt/Documents/src/cg/tests/fixtures/orderforms/[1508.15.mip.xlsx]Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>F15:F66</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0E61A3F1-C048-9140-A8FD-4F681E300240}">
+          <x14:formula1>
+            <xm:f>'/Users/patrikgrenfeldt/Documents/src/cg/tests/fixtures/orderforms/[1508.15.mip.xlsx]Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B15:B66</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -18642,7 +18731,7 @@
   <dimension ref="A1:AK103"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L54"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -18717,7 +18806,7 @@
         <v>253</v>
       </c>
       <c r="N2" s="55" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O2" s="44"/>
       <c r="P2" s="43"/>
@@ -18748,7 +18837,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>288</v>
@@ -18784,7 +18873,7 @@
         <v>5</v>
       </c>
       <c r="N3" s="31" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
@@ -18835,7 +18924,7 @@
         <v>10</v>
       </c>
       <c r="N4" s="31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
@@ -18891,7 +18980,7 @@
     <row r="6" spans="1:37">
       <c r="A6" s="32"/>
       <c r="B6" s="38" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>291</v>
@@ -18936,10 +19025,10 @@
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="42" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I7" s="176" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K7" s="175" t="s">
         <v>31</v>
@@ -19109,7 +19198,7 @@
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="176" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
@@ -19144,7 +19233,7 @@
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
@@ -19171,7 +19260,7 @@
       <c r="A14" s="32"/>
       <c r="B14" s="33"/>
       <c r="C14" s="30" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="21" t="s">
@@ -19221,7 +19310,7 @@
         <v>117</v>
       </c>
       <c r="L15" s="172" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M15">
         <v>65</v>
@@ -19239,7 +19328,7 @@
       <c r="A16" s="32"/>
       <c r="B16" s="34"/>
       <c r="C16" s="30" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="21" t="s">
@@ -19272,7 +19361,7 @@
       <c r="A17" s="32"/>
       <c r="B17" s="34"/>
       <c r="C17" s="53" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="21" t="s">
@@ -19338,7 +19427,7 @@
       <c r="A19" s="32"/>
       <c r="B19" s="34"/>
       <c r="C19" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="21" t="s">
@@ -19404,7 +19493,7 @@
       <c r="A21" s="32"/>
       <c r="B21" s="34"/>
       <c r="C21" s="30" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="21" t="s">
@@ -19452,7 +19541,7 @@
         <v>110</v>
       </c>
       <c r="L22" s="172" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M22">
         <v>100</v>
@@ -19515,7 +19604,7 @@
         <v>112</v>
       </c>
       <c r="L24" s="31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
@@ -19623,7 +19712,7 @@
         <v>131</v>
       </c>
       <c r="L28" s="172" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N28" s="22"/>
       <c r="O28" s="22"/>
@@ -19790,7 +19879,7 @@
         <v>185</v>
       </c>
       <c r="L34" s="172" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -21548,6 +21637,7 @@
       <c r="U103" s="22"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="AlryAM3vCnGy9MjXjTugKlzYaBLXZjLFYA9egPMQNhCW9Rq5MHQApudHrT0cbI+iO4Nvz6A4Rff9jagAqBw+Hw==" saltValue="r2WjgYLC3iN7hYZov2+P2A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState ref="L3:L44">
     <sortCondition ref="L44"/>
   </sortState>
